--- a/Elf_BaseFramework/src/test/resources/testData/testData.xlsx
+++ b/Elf_BaseFramework/src/test/resources/testData/testData.xlsx
@@ -1,13 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D723D94D-FEAD-4613-9A6D-5B0DDEA0F406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="TestData" sheetId="1" r:id="rId1"/>
+    <sheet name="TestDataTitle" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,18 +23,84 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+  <si>
+    <t xml:space="preserve">sairaj </t>
+  </si>
+  <si>
+    <t xml:space="preserve">matsagar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testyantra software solutions </t>
+  </si>
+  <si>
+    <t>software</t>
+  </si>
+  <si>
+    <t>sairajmatsagar123@gmail.com</t>
+  </si>
+  <si>
+    <t>sairajmatsagar@123gmail.com</t>
+  </si>
+  <si>
+    <t>www.testyantra.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shashri nagar </t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t xml:space="preserve">po box </t>
+  </si>
+  <si>
+    <t>Aurangabad</t>
+  </si>
+  <si>
+    <t>Maharashtra</t>
+  </si>
+  <si>
+    <t>Online Traning</t>
+  </si>
+  <si>
+    <t>Administrator - Home - vtiger CRM 5 - Commercial Open Source CRM</t>
+  </si>
+  <si>
+    <t>Administrator - Leads - vtiger CRM 5 - Commercial Open Source CRM</t>
+  </si>
+  <si>
+    <t>abcdef</t>
+  </si>
+  <si>
+    <t>xyzsuv</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF202124"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -50,13 +120,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -334,12 +408,153 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="26.36328125" customWidth="1"/>
+    <col min="8" max="9" width="10.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>100</v>
+      </c>
+      <c r="F1">
+        <v>6000</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1">
+        <v>8796876407</v>
+      </c>
+      <c r="I1">
+        <v>9421312056</v>
+      </c>
+      <c r="J1">
+        <v>1234</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1">
+        <v>423701</v>
+      </c>
+      <c r="O1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="G16" t="s">
+        <v>15</v>
+      </c>
+      <c r="K16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="H17">
+        <v>222</v>
+      </c>
+      <c r="I17">
+        <v>22222222</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G1" r:id="rId1" xr:uid="{74407582-4C23-4DAF-9370-8536B563A2A6}"/>
+    <hyperlink ref="K1" r:id="rId2" xr:uid="{7812C1E8-D4CE-42B6-8ACD-91E214BCC7C9}"/>
+    <hyperlink ref="L1" r:id="rId3" xr:uid="{58031C7E-5FEF-4A33-B234-C586143CF391}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC3475E1-5950-4202-BC9A-5BC558D58C04}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="20.7265625" customWidth="1"/>
+    <col min="2" max="2" width="28.453125" customWidth="1"/>
+    <col min="3" max="3" width="47.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ECD8708-CA4F-462F-99D0-3EC75894C949}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8C40D42-563E-4A07-A9C4-A76A3BAC7D90}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
